--- a/Survey.xlsx
+++ b/Survey.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Duy\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Duy\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{619CED83-FBE6-4CF2-B766-B086D0D2AEBF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FEA4559-5A92-4BBA-8674-B0D45B983A6B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{DCBBA1CB-1CE9-4D5C-9334-EDAB488FFE5D}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5640" xr2:uid="{DCBBA1CB-1CE9-4D5C-9334-EDAB488FFE5D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -473,7 +473,7 @@
   <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -555,7 +555,7 @@
         <v>5</v>
       </c>
       <c r="F3" s="7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
@@ -572,10 +572,10 @@
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D4" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E4" s="2">
         <v>4</v>
